--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833416.7186880594</v>
+        <v>840548.8405774132</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -665,61 +665,61 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>86.48406825923597</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.67425390421762</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>105.3690580549763</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.6895931158046016</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.2124090935528</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,16 +1461,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>17.55829564281238</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>36.6156848048708</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1898,16 +1898,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.81864327422213</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>182.7004482653351</v>
       </c>
       <c r="V24" t="n">
-        <v>164.3627140900143</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2561,16 +2561,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.81129148123403</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,20 +2789,20 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>97.48188567889169</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>10.52620077537995</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>36.43923176655766</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,59 +3269,59 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>76.10494288353394</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.8535562397563</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>95.16904316421409</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,58 +3974,58 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>104.6224667287184</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4337,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4361,19 +4361,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>734.7137330468227</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>561.2963884974915</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4577,10 +4577,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339.8288664974407</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C6" t="n">
-        <v>165.3758372163137</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>715.637985778398</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.0442035175087</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4744,31 +4744,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4781,10 +4781,10 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,13 +4835,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="V8" t="n">
-        <v>431.628992076841</v>
-      </c>
       <c r="W8" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
         <v>431.628992076841</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>131.2612545031018</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.89211891068108</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,7 +4890,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
         <v>435.9652341458732</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4981,31 +4981,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5078,13 +5078,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>269.2955212176533</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5130,7 +5130,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5157,13 +5157,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y12" t="n">
-        <v>406.8838132313431</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="13">
@@ -5188,10 +5188,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>133.2380658808762</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>255.5008658160403</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>47.90708355515102</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,28 +5300,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>339.4464838052879</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>192.9119258321728</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>54.18110041478835</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,7 +5361,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
         <v>366.5706756325438</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="16">
@@ -5537,22 +5537,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>527.5764290961142</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
         <v>19.28114311021272</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.424473941237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>622.424473941237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>622.424473941237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>463.1870189357815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>316.6524609626665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>177.921635545282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>64.55249995286134</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X23" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V24" t="n">
-        <v>798.0342119853692</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>554.5854353412691</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>346.7339351357363</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6163,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H26" t="n">
         <v>231.8830517671884</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2958053919369</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2958053919369</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2958053919369</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D29" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X29" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y29" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X29" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.7661011803829</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>158.7661011803829</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>865.5906043198365</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>865.5906043198365</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>637.3669860562256</v>
+        <v>577.8206902843338</v>
       </c>
       <c r="V30" t="n">
-        <v>402.214877824483</v>
+        <v>342.668582052591</v>
       </c>
       <c r="W30" t="n">
-        <v>158.7661011803829</v>
+        <v>342.668582052591</v>
       </c>
       <c r="X30" t="n">
-        <v>158.7661011803829</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.7661011803829</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.0815197256143</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C36" t="n">
-        <v>413.6284904444873</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7026,10 +7026,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C39" t="n">
-        <v>69.84447166430675</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D39" t="n">
-        <v>69.84447166430675</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E39" t="n">
-        <v>69.84447166430675</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7266,10 +7266,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>791.4778057735086</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>791.4778057735086</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>791.4778057735086</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>548.0290291294086</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
         <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7442,19 +7442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W41" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X41" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V41" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W41" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="X41" t="n">
-        <v>199.2900309704538</v>
-      </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>350.131911841645</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7527,13 +7527,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>725.9410311226023</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>725.9410311226023</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>518.3472488617131</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H43" t="n">
         <v>16.44142755506243</v>
@@ -7597,22 +7597,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7673,25 +7673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.5829991502264</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>716.3921184311838</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>716.3921184311838</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>716.3921184311838</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>716.3921184311838</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>716.3921184311838</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>716.3921184311838</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.7983361702945</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7985,13 +7985,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,10 +8538,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8778,10 +8778,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9009,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9495,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10674,13 +10674,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11154,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,10 +11309,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,10 +11385,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22601,13 +22601,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>70.32553552659914</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>13.67376589340716</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22683,16 +22683,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>46.42735402472917</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22875,16 +22875,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.66926325899301</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22926,7 +22926,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>100.4039271485011</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,13 +23021,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23115,13 +23115,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>88.70703973561048</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,7 +23163,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.32077455631452</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,16 +23349,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>204.3987039795849</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4326837156464</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,28 +23495,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>384.1517380750474</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>75.61975943162567</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,19 +24020,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>44.57798957719295</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,19 +24096,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24227,7 +24227,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8955716431281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>43.24093381563969</v>
       </c>
       <c r="V24" t="n">
-        <v>68.43787305941095</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24449,16 +24449,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>246.5201351062217</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>97.42415275526243</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>116.107508752802</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24646,10 +24646,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>74.20128542494614</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>215.4151813055949</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,19 +24968,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>215.2557513943619</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25129,10 +25129,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,16 +25157,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25202,13 +25202,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>149.8364391974409</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25436,10 +25436,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,19 +25521,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.3111724550653</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>170.4039740891423</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25682,16 +25682,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25710,10 +25710,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,7 +25767,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>156.5259399967055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,7 +25913,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>67.06070437511939</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.50693339</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.5069333903</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418312.8216978</v>
+        <v>418312.8216978001</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418312.8216978001</v>
+        <v>418312.8216978</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="C2" t="n">
         <v>173533.4060184247</v>
@@ -26320,7 +26320,7 @@
         <v>173533.4060184247</v>
       </c>
       <c r="E2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184247</v>
@@ -26335,7 +26335,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="K2" t="n">
         <v>182776.7397844656</v>
@@ -26344,7 +26344,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="M2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="N2" t="n">
         <v>182776.7397844656</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17855.4150942669</v>
+        <v>18688.27164199042</v>
       </c>
       <c r="C6" t="n">
-        <v>86729.17167595678</v>
+        <v>87562.02822368022</v>
       </c>
       <c r="D6" t="n">
-        <v>86729.17167595678</v>
+        <v>87562.0282236802</v>
       </c>
       <c r="E6" t="n">
-        <v>120356.7716759568</v>
+        <v>121189.6282236803</v>
       </c>
       <c r="F6" t="n">
-        <v>120356.7716759567</v>
+        <v>121189.6282236802</v>
       </c>
       <c r="G6" t="n">
-        <v>115498.7737866213</v>
+        <v>116376.6026906407</v>
       </c>
       <c r="H6" t="n">
-        <v>125227.8167607884</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="I6" t="n">
-        <v>125227.8167607884</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="J6" t="n">
-        <v>71455.305870579</v>
+        <v>72333.13477459842</v>
       </c>
       <c r="K6" t="n">
-        <v>125227.8167607885</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="L6" t="n">
-        <v>125227.8167607885</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="M6" t="n">
-        <v>125227.8167607884</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="N6" t="n">
-        <v>125227.8167607885</v>
+        <v>126105.6456648078</v>
       </c>
       <c r="O6" t="n">
-        <v>120356.7716759568</v>
+        <v>121189.6282236803</v>
       </c>
       <c r="P6" t="n">
-        <v>120356.7716759568</v>
+        <v>121189.6282236802</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O12" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35729,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36215,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37394,13 +37394,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37874,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,10 +38029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,10 +38105,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>197.2140931478448</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840548.8405774132</v>
+        <v>841332.9865154421</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +743,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>86.48406825923597</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.67425390421762</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>86.48406825923603</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>109.1663496405434</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6895931158046016</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,64 +1606,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>205.5178444382804</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.0500723064956</v>
+        <v>155.1371722699136</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>32.94517566205823</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>200.3360962888297</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -2217,13 +2219,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,61 +2250,61 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>23.13516915087264</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>182.7004482653351</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>92.95466700954542</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.81129148123403</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,26 +2791,26 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>10.52620077537995</v>
+        <v>71.98374608812802</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3026,70 +3028,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>36.43923176655766</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>76.10494288353394</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>26.98580820205342</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>23.40849067511758</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.8535562397563</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,55 +3745,55 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>66.38439726656334</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>95.16904316421409</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3913,37 +3915,37 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,58 +3988,58 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>28.72815266929518</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="F3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>435.9652341458732</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
         <v>435.9652341458732</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>734.7137330468227</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>561.2963884974915</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W3" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X3" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="4">
@@ -4544,7 +4546,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4580,7 +4582,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.09272902505</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C6" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.308066045118</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C8" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y8" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="W8" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="X8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>305.7142837842288</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C9" t="n">
-        <v>131.2612545031018</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D9" t="n">
-        <v>131.2612545031018</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E9" t="n">
-        <v>131.2612545031018</v>
+        <v>412.7299836393005</v>
       </c>
       <c r="F9" t="n">
-        <v>131.2612545031018</v>
+        <v>266.1954256661855</v>
       </c>
       <c r="G9" t="n">
-        <v>131.2612545031018</v>
+        <v>127.464600248801</v>
       </c>
       <c r="H9" t="n">
-        <v>17.89211891068108</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4920,13 +4922,13 @@
         <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5075,16 +5077,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5157,13 +5159,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>774.2973583780361</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7035761171468</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5309,19 +5311,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5537,25 +5539,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5704,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5782,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5834,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
         <v>486.8488635328713</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>928.2922408909005</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>325.7766548071333</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
         <v>231.8830517671884</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y26" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>125.2958053919369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>125.2958053919369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>125.2958053919369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6409,22 +6411,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>577.8206902843338</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="V30" t="n">
-        <v>342.668582052591</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="W30" t="n">
-        <v>342.668582052591</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="X30" t="n">
-        <v>342.668582052591</v>
+        <v>689.1597062349294</v>
       </c>
       <c r="Y30" t="n">
-        <v>342.668582052591</v>
+        <v>481.3994074699755</v>
       </c>
     </row>
     <row r="31">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6964,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X35" t="n">
-        <v>506.1786963984129</v>
-      </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.215552771464</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>583.8273517419507</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>583.8273517419507</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>583.8273517419507</v>
+        <v>936.7987633873499</v>
       </c>
       <c r="X36" t="n">
-        <v>375.9758515364179</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.215552771464</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="37">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>340.2687303644548</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>165.8157010833278</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D39" t="n">
-        <v>165.8157010833278</v>
+        <v>189.4606411592041</v>
       </c>
       <c r="E39" t="n">
         <v>165.8157010833278</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>791.4778057735086</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>548.0290291294086</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>548.0290291294086</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>340.2687303644548</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D41" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7421,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7436,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.131911841645</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>175.6788825605179</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>83.4963742889648</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,13 +7493,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
         <v>618.608711759224</v>
@@ -7527,13 +7529,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>725.9410311226023</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>725.9410311226023</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.3472488617131</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
         <v>16.44142755506243</v>
@@ -7591,28 +7593,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7658,7 +7660,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7757,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="46">
@@ -7840,7 +7842,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9021,7 +9023,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,10 +10676,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>186.8580120236956</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11069,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11306,10 +11308,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N45" t="n">
-        <v>328.5558052311782</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22550,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22595,16 +22597,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22629,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>139.8579884910507</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>13.67376589340716</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22875,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.66926325899301</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>139.4573138217388</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23078,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.069094595953104</v>
       </c>
       <c r="I9" t="n">
-        <v>88.70703973561048</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3987039795849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C14" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23513,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>122.2344140318545</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.48311134337176</v>
+        <v>11.39601137995373</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,10 +24022,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>22.7597532753017</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>134.925032609203</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24105,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>121.9340432425112</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>43.24093381563969</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>246.5201351062217</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>97.42415275526243</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,13 +24575,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24771,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24807,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>215.4151813055949</v>
+        <v>153.9576359928468</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,16 +24970,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.2557513943619</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,13 +25204,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8305335069347</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>149.8364391974409</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.7091749588662</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>134.2365897802834</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.3111724550653</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>246.2319094885102</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>91.2606831888376</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>156.5259399967055</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>344.1125915454646</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>118.7169128953436</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418312.8216978001</v>
+        <v>418312.8216978</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440623.50693339</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.5069333903</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.5069333903</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.5069333903</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418312.8216978001</v>
+        <v>418312.8216978002</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418312.8216978</v>
+        <v>418312.8216978001</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>173533.4060184247</v>
+      </c>
+      <c r="C2" t="n">
         <v>173533.4060184248</v>
-      </c>
-      <c r="C2" t="n">
-        <v>173533.4060184247</v>
       </c>
       <c r="D2" t="n">
         <v>173533.4060184247</v>
@@ -26323,19 +26325,19 @@
         <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="G2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="I2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="J2" t="n">
         <v>182776.7397844656</v>
-      </c>
-      <c r="I2" t="n">
-        <v>182776.7397844656</v>
-      </c>
-      <c r="J2" t="n">
-        <v>182776.7397844657</v>
       </c>
       <c r="K2" t="n">
         <v>182776.7397844656</v>
@@ -26344,7 +26346,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="M2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="N2" t="n">
         <v>182776.7397844656</v>
@@ -26433,10 +26435,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="I4" t="n">
         <v>42017.42535589614</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
         <v>42017.42535589614</v>
@@ -26445,13 +26447,13 @@
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
         <v>42017.42535589614</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18688.27164199042</v>
+        <v>18688.27164199037</v>
       </c>
       <c r="C6" t="n">
-        <v>87562.02822368022</v>
+        <v>87562.02822368024</v>
       </c>
       <c r="D6" t="n">
-        <v>87562.0282236802</v>
+        <v>87562.02822368019</v>
       </c>
       <c r="E6" t="n">
         <v>121189.6282236803</v>
       </c>
       <c r="F6" t="n">
-        <v>121189.6282236802</v>
+        <v>121189.6282236803</v>
       </c>
       <c r="G6" t="n">
         <v>116376.6026906407</v>
       </c>
       <c r="H6" t="n">
-        <v>126105.6456648078</v>
+        <v>126105.6456648079</v>
       </c>
       <c r="I6" t="n">
-        <v>126105.6456648078</v>
+        <v>126105.6456648079</v>
       </c>
       <c r="J6" t="n">
-        <v>72333.13477459842</v>
+        <v>72333.13477459835</v>
       </c>
       <c r="K6" t="n">
         <v>126105.6456648078</v>
@@ -26561,7 +26563,7 @@
         <v>121189.6282236803</v>
       </c>
       <c r="P6" t="n">
-        <v>121189.6282236802</v>
+        <v>121189.6282236803</v>
       </c>
     </row>
   </sheetData>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>91.61977832229879</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35741,7 +35743,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,10 +37396,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37789,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38026,10 +38028,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841332.9865154421</v>
+        <v>742954.142319335</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4965404.557055497</v>
+        <v>6716201.316638893</v>
       </c>
     </row>
     <row r="11">
@@ -664,67 +664,67 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.211223902333198</v>
+        <v>41.40769068436848</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -861,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>86.48406825923603</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>152.175786527775</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,64 +1132,64 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>109.1663496405434</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>135.2146697354362</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>37.10634673358873</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>91.54936420090624</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>181.0201173812374</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155.1371722699136</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>69.63810024349355</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>32.94517566205823</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.7849847350465</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31.60815104066432</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2320,7 +2320,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.13516915087264</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>89.66547645067553</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>50.05769526855297</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2876,16 +2876,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>15.50991635950221</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>71.98374608812802</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,67 +3274,67 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>62.86349518004441</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>26.98580820205342</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,43 +3444,43 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,61 +3505,61 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>23.40849067511758</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>32.08084474823299</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,76 +3660,76 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>169.0708280266249</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3821,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>66.38439726656334</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>109.9129409668011</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>28.72815266929518</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y2" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C3" t="n">
-        <v>170.639699743923</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70529008267172</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="E3" t="n">
-        <v>21.70529008267172</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4439,22 +4439,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V3" t="n">
-        <v>720.9018483060073</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W3" t="n">
-        <v>720.9018483060073</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X3" t="n">
-        <v>720.9018483060073</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="4">
@@ -4509,25 +4509,25 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
         <v>38.93586374282289</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.8944568361894</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4652,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>359.1097938562575</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V6" t="n">
-        <v>359.1097938562575</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W6" t="n">
-        <v>359.1097938562575</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X6" t="n">
-        <v>359.1097938562575</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.1097938562575</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.9018483060073</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>720.9018483060073</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>571.967438644756</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>412.7299836393005</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
-        <v>266.1954256661855</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>127.464600248801</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4886,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>483.304308631649</v>
       </c>
       <c r="X9" t="n">
-        <v>720.9018483060073</v>
+        <v>275.7105263707597</v>
       </c>
       <c r="Y9" t="n">
-        <v>720.9018483060073</v>
+        <v>275.7105263707597</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,19 +5044,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5065,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>314.4097079779024</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5156,16 +5156,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5287,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5311,19 +5311,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W14" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V14" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W14" t="n">
-        <v>406.8838132313431</v>
-      </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.3671633390675</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="C15" t="n">
-        <v>665.3671633390675</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5551,16 +5551,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
         <v>20.03527576299844</v>
@@ -5603,7 +5603,7 @@
         <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>217.7978866064798</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5715,10 +5715,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W26" t="n">
-        <v>962.2293816994886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X26" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="27">
@@ -6308,46 +6308,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>873.4859671766205</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>700.0686226272894</v>
       </c>
       <c r="T27" t="n">
-        <v>913.4938269565423</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U27" t="n">
-        <v>913.4938269565423</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>678.3417187247995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6423,10 +6423,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="C29" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="D29" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="E29" t="n">
+        <v>738.7078125165641</v>
+      </c>
+      <c r="F29" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D29" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>262.7299197543128</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.3994074699755</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>34.94772529152809</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>34.94772529152809</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>34.94772529152809</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>689.1597062349294</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>689.1597062349294</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>689.1597062349294</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X30" t="n">
-        <v>689.1597062349294</v>
+        <v>209.4007545726551</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.3994074699755</v>
+        <v>209.4007545726551</v>
       </c>
     </row>
     <row r="31">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6791,40 +6791,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="34">
@@ -6885,7 +6885,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5586755307934</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W36" t="n">
-        <v>936.7987633873499</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9472631818171</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1869644168632</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3950508204554</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>189.4606411592041</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.6522618255524</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.6522618255524</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>931.6522618255524</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7423,40 +7423,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>232.4307839502161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>83.4963742889648</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,10 +7593,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7657,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>204.697218590109</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="C45" t="n">
-        <v>204.697218590109</v>
+        <v>609.8786756122688</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>460.9442659510175</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>301.706810945562</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7733,7 +7733,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
         <v>232.5025681519757</v>
@@ -7751,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V45" t="n">
-        <v>204.697218590109</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W45" t="n">
-        <v>204.697218590109</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X45" t="n">
-        <v>204.697218590109</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y45" t="n">
-        <v>204.697218590109</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="46">
@@ -7842,13 +7842,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
         <v>16.44142755506243</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8312,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8546,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8786,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8935,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,10 +9251,10 @@
         <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>201.9320071929585</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22634,22 +22634,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.8579884910507</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22868,25 +22868,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>139.4573138217388</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23117,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.069094595953104</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23317,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>74.9838194489611</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>201.7137242822431</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23551,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.39601137995373</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>75.43111214989032</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>104.3983415011524</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>9.988000468430954</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,10 +23980,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24025,10 +24025,10 @@
         <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>134.925032609203</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>121.9340432425112</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24405,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>10.49235770196761</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>150.1070334262686</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24587,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
@@ -24733,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24764,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>129.5592960338817</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>153.9576359928468</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25125,10 +25125,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>108.8196759237934</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>224.7091749588662</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>134.2365897802834</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>68.07698940441014</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,13 +25526,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>246.2319094885102</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25709,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>91.2606831888376</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25867,7 +25867,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>344.1125915454646</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>56.62024268306622</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>118.7169128953436</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418312.8216978001</v>
+        <v>1024944.605131104</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418312.8216978</v>
+        <v>1024944.605131104</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418312.8216978001</v>
+        <v>1024944.605131104</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418312.8216978001</v>
+        <v>418312.8216978</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418312.8216978</v>
+        <v>418312.8216978001</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440623.5069333902</v>
+        <v>440623.50693339</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.50693339</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.50693339</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440623.5069333903</v>
+        <v>440623.5069333902</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418312.8216978002</v>
+        <v>418312.8216978001</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418312.8216978001</v>
+        <v>418312.8216978</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184248</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="I2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
         <v>182776.7397844656</v>
@@ -26355,7 +26355,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39848.29285289707</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="C4" t="n">
-        <v>39848.29285289707</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
-        <v>39848.29285289707</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="E4" t="n">
         <v>39848.29285289707</v>
@@ -26438,10 +26438,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
@@ -26450,10 +26450,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18688.27164199037</v>
+        <v>8189.96490147341</v>
       </c>
       <c r="C6" t="n">
-        <v>87562.02822368024</v>
+        <v>77063.7214831631</v>
       </c>
       <c r="D6" t="n">
-        <v>87562.02822368019</v>
+        <v>77063.72148316333</v>
       </c>
       <c r="E6" t="n">
-        <v>121189.6282236803</v>
+        <v>108551.4660688197</v>
       </c>
       <c r="F6" t="n">
-        <v>121189.6282236803</v>
+        <v>108551.4660688197</v>
       </c>
       <c r="G6" t="n">
-        <v>116376.6026906407</v>
+        <v>104158.5920706003</v>
       </c>
       <c r="H6" t="n">
-        <v>126105.6456648079</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="I6" t="n">
-        <v>126105.6456648079</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="J6" t="n">
-        <v>72333.13477459835</v>
+        <v>60115.12415455788</v>
       </c>
       <c r="K6" t="n">
-        <v>126105.6456648078</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="L6" t="n">
-        <v>126105.6456648078</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="M6" t="n">
-        <v>126105.6456648078</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="N6" t="n">
-        <v>126105.6456648078</v>
+        <v>113887.6350447673</v>
       </c>
       <c r="O6" t="n">
-        <v>121189.6282236803</v>
+        <v>108551.4660688197</v>
       </c>
       <c r="P6" t="n">
-        <v>121189.6282236803</v>
+        <v>108551.4660688197</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>177.1810286261048</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>103.6615217090154</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>80.62480062165031</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,22 +27934,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>116.4803134254834</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>249.2126826229022</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35266,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35506,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>70.5902951096252</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,10 +38101,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
